--- a/Project 6 Capstone Project/data_dictionary.xlsx
+++ b/Project 6 Capstone Project/data_dictionary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sai.kolusu\Documents\Repos\Capstone\Project 6 Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905A7229-3C44-4BF8-9059-95AF505F4E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F49536B-9481-4EA8-A479-484D03721FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{0DD41D03-395C-4B3A-B8C3-E643CEA35A66}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="dim_collisions" sheetId="1" r:id="rId1"/>
+    <sheet name="dim_vehicles" sheetId="2" r:id="rId2"/>
+    <sheet name="dim_persons" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Table Name</t>
   </si>
@@ -47,56 +47,18 @@
     <t>Column Description</t>
   </si>
   <si>
-    <t>MV-Collisions - Crash</t>
-  </si>
-  <si>
     <t>COLLISION_ID</t>
   </si>
   <si>
     <t>Unique record code generated by system</t>
   </si>
   <si>
-    <t>ACCIDENT_DATE</t>
-  </si>
-  <si>
-    <t>Occurrence date of collision</t>
-  </si>
-  <si>
-    <t>ACCIDENT_TIME</t>
-  </si>
-  <si>
-    <t>Occurrence time of collision</t>
-  </si>
-  <si>
     <t>BOROUGH</t>
   </si>
   <si>
     <t>Borough where collision occurred</t>
   </si>
   <si>
-    <t>ZIP CODE</t>
-  </si>
-  <si>
-    <t>Postal code of incident occurrence</t>
-  </si>
-  <si>
-    <t>LATITUDE</t>
-  </si>
-  <si>
-    <r>
-      <t>Latitude coordinate for Global Coordinate System, WGS 1984, decimal degrees (EPSG 4326)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Street on which the collision occurred</t>
   </si>
   <si>
@@ -169,96 +131,18 @@
     <t>Location on the vehicle where most of the damage occurred</t>
   </si>
   <si>
-    <t>CONTRIBUTING_FACTOR_2</t>
-  </si>
-  <si>
-    <t>VICTIM_ID</t>
-  </si>
-  <si>
     <t>Victim identification code assigned by system</t>
   </si>
   <si>
-    <t>VICTIM_TYPE</t>
-  </si>
-  <si>
     <t>Bicyclist, Occupant, Pedestrian, etc.</t>
   </si>
   <si>
-    <t>VICTIM_INJURY</t>
-  </si>
-  <si>
     <t>Injured, killed, unspecified</t>
   </si>
   <si>
-    <t>Unique vehicle record associated with victim</t>
-  </si>
-  <si>
-    <t>VICTIM_AGE</t>
-  </si>
-  <si>
     <t>Automatically calculated based on date of birth</t>
   </si>
   <si>
-    <t>EJECTION</t>
-  </si>
-  <si>
-    <t>Not ejected, partially ejected, or ejected from the vehicle</t>
-  </si>
-  <si>
-    <t>EMOTIONAL_STATUS</t>
-  </si>
-  <si>
-    <t>Death, unconscious, semiconscious, etc.</t>
-  </si>
-  <si>
-    <t>BODILY_INJURY</t>
-  </si>
-  <si>
-    <t>Injured body area (i.e. head, face, neck, etc.)</t>
-  </si>
-  <si>
-    <t>POSITION_IN_VEHICLE</t>
-  </si>
-  <si>
-    <t>Seating position #1-#8 (i.e. driver, front passenger, etc.)</t>
-  </si>
-  <si>
-    <t>SAFETY_EQUIPMENT</t>
-  </si>
-  <si>
-    <t>Safety equipment being used (i.e. lap belt, harness, child restraint, air bag, etc.)</t>
-  </si>
-  <si>
-    <t>PED_LOCATION</t>
-  </si>
-  <si>
-    <t>Location of the pedestrian (i.e. at intersection, not at intersection)</t>
-  </si>
-  <si>
-    <t>PED_ACTION</t>
-  </si>
-  <si>
-    <t>What the pedestrian was doing at time of crash (i.e., walking with the signal, against the signal, etc.)</t>
-  </si>
-  <si>
-    <t>COMPLAINT</t>
-  </si>
-  <si>
-    <t>Type of physical complaint (ex. Concussion, severe burn, severe bleeding, etc.)</t>
-  </si>
-  <si>
-    <t>VICTIM_ROLE</t>
-  </si>
-  <si>
-    <t>Driver, passenger, pedestrian, etc.</t>
-  </si>
-  <si>
-    <t>CONTRIBUTING _FACTOR_1</t>
-  </si>
-  <si>
-    <t>VICTIM_SEX</t>
-  </si>
-  <si>
     <t>Gender of victim</t>
   </si>
   <si>
@@ -287,13 +171,28 @@
   </si>
   <si>
     <t>dim_persons</t>
+  </si>
+  <si>
+    <t>PERSON_ID</t>
+  </si>
+  <si>
+    <t>PERSON_TYPE</t>
+  </si>
+  <si>
+    <t>PERSON_INJURY</t>
+  </si>
+  <si>
+    <t>PERSON_AGE</t>
+  </si>
+  <si>
+    <t>PERSON_SEX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,30 +219,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -439,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -464,10 +351,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -475,15 +361,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE472B2-8F59-4CF6-B680-786925C0BFD2}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,156 +715,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +789,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,124 +811,124 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1135,10 +938,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C663D34-A1CA-47EA-AF56-20ED7C8BA1A6}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,201 +963,69 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>79</v>
+      <c r="A2" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>79</v>
+      <c r="A4" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>47</v>
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>70</v>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
